--- a/进度.xlsx
+++ b/进度.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\milly\eclipse-workspace\404\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D86CA5A-6843-4C74-A938-1F0EF25BA97D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{933F361D-5C42-4DE0-A6B1-997CED4FFE22}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3EFDA536-248F-4032-9124-FADB6029AEE8}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="63">
   <si>
     <t>商品</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -68,175 +68,214 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>具正模 @9_jung_mo9 反光手幅</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>李垠尚饭制透扇透卡</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>未发货</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.23韩国到货</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>李垠尚 宋亨俊饭制手拿镜</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>车俊昊ugi黑色手幅</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>李镇赫 Real Fantasy 蓝玫瑰手幅</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>田雄 fully wing 一代</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金施勳Navy Blue Navy KIT反光手幅</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一贩韩国到货</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙东杓 kiss of the gun 反光手幅</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>具正模 into stereo 一代手幅</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>田雄 phenomenal @971015com 一代反光手幅</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金曜汉 Your Heartthrob 一代反光手幅</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>推主手幅制作颜色出问题 重新制作 7.26前会发货</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金东彬 none archive 一代反光手幅</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金曜汉饭制证件照</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>回国ing</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>李翰洁 ninevelvet 反光手幅</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>曹承衍 foryou_SY1996 1st CHEERING KIT 反光手幅</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>李美談 LEEMIDAM Cheering Kit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>付款后未提交表格 所以未发货</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>李美談 饭制反光手幅</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙东杓 同款蓝白T</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>李垠尚 车俊昊 具正模 金敏圭饭制横幅挂饰</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙东杓 bold二代</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>李津宇 DECADENCE 一代</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>推主开始发货</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金宇硕饭制透扇</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>少两套 按补款时间退款</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>饭制404练习生position舞台 手机壳 手机支架 ​​​​</t>
+  </si>
+  <si>
+    <t>孙东杓 饭制魔术反光手幅</t>
+  </si>
+  <si>
+    <t>饭绘404练习生手机壳 </t>
+  </si>
+  <si>
+    <t>金宇硕 饭制🌹玫瑰手拿灯</t>
+  </si>
+  <si>
+    <t>Tony于景天SWEET ADDICTION 一代手幅</t>
+  </si>
+  <si>
+    <t>具正模 小白熊反光手幅</t>
+  </si>
+  <si>
     <t>曹承衍 Bunny 一代反光手幅</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>少两套 已拿开箱视频联系推主</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>具正模 小白熊反光手幅</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>金宇硕 @WooSeokad 反光手幅</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>李镇赫 action 一代MOVE 反光手幅</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>金旻奎 MELLIFLUOUS CARAMEL 一代反光手幅</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>金宇硕 @19961027 反光手幅</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金宇硕 WooSeoKad 应援手幅</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>李镇赫 action 一代 MOVE 反光手幅</t>
+  </si>
+  <si>
+    <t>金敏圭 MELLIFLUOUS CARAMEL一代反光手幅</t>
   </si>
   <si>
     <t>田雄 Sweety 一代反光手幅</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>具正模 @9_jung_mo9 反光手幅</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>李垠尚饭制透扇透卡</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>未发货</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>7.23韩国到货</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>李垠尚 宋亨俊饭制手拿镜</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>车俊昊ugi黑色手幅</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>李镇赫 Real Fantasy 蓝玫瑰手幅</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>田雄 fully wing 一代</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>金施勳Navy Blue Navy KIT反光手幅</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>一贩韩国到货</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>孙东杓 kiss of the gun 反光手幅</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>具正模 into stereo 一代手幅</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>田雄 phenomenal @971015com 一代反光手幅</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>金曜汉 Your Heartthrob 一代反光手幅</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>推主手幅制作颜色出问题 重新制作 7.26前会发货</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>金旻奎 perfum 一代反光手幅</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>金东彬 none archive 一代反光手幅</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>金曜汉饭制证件照</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>回国ing</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>李翰洁 ninevelvet 反光手幅</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>车俊昊 LAPUTA 二代手幅</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>南道贤 贴纸</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>曹承衍 foryou_SY1996 1st CHEERING KIT 反光手幅</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>李美談 LEEMIDAM Cheering Kit</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>付款后未提交表格 所以未发货</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>李美談 饭制反光手幅</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>孙东杓 同款蓝白T</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>李垠尚 车俊昊 具正模 金敏圭饭制横幅挂饰</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>孙东杓 bold二代</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>李津宇 DECADENCE 一代</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>推主开始发货</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>金宇硕饭制透扇</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>少两套 按补款时间退款</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>孙东杓 饭制魔术手幅</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>推主已寄出</t>
+    <t>7.25韩国到货</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.29韩国到货</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.27韩国到货</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.31韩国到货</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金珉周 DOUBLE SUADE 反光手幅</t>
+  </si>
+  <si>
+    <t>8.1韩国到货</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>姜敏熙 MMM.  二代反光手幅</t>
+  </si>
+  <si>
+    <t>孙东杓 KISS OF THE GUN 手幅</t>
+  </si>
+  <si>
+    <t>具正模 李垠尚饭制全息贴纸</t>
+  </si>
+  <si>
+    <t>黄允圣 饭制校服手幅</t>
+  </si>
+  <si>
+    <r>
+      <t>金宇硕 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="STKaiti"/>
+        <charset val="134"/>
+      </rPr>
+      <t>@1996I027 反光手幅二贩</t>
+    </r>
+  </si>
+  <si>
+    <t>具正模 饭制证件照（第一批）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金施勲 PLAY UP!CHEERING KIT 反光手幅（少手幅*1+手机支架*3）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -244,7 +283,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -268,6 +307,32 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="4" tint="0.39997558519241921"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="STKaiti"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="STKaiti"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -315,12 +380,30 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -637,343 +720,334 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD66957C-8957-4AEA-8409-B8280AF264FC}">
-  <dimension ref="A1:C49"/>
+  <dimension ref="A1:F63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="46.109375" customWidth="1"/>
-    <col min="2" max="2" width="15.88671875" customWidth="1"/>
-    <col min="3" max="3" width="48.21875" customWidth="1"/>
+    <col min="1" max="5" width="31" customWidth="1"/>
+    <col min="6" max="7" width="32.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F7" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E8" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="E9" s="5"/>
+    </row>
+    <row r="10" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B10" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="C10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B12" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" t="s">
+    <row r="13" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>32</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>6</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B19" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
+    <row r="21" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>11</v>
-      </c>
-      <c r="B18" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>17</v>
-      </c>
-      <c r="B20" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>9</v>
       </c>
       <c r="B22" t="s">
         <v>8</v>
       </c>
-      <c r="C22" t="s">
+    </row>
+    <row r="24" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>39</v>
-      </c>
-      <c r="B23" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="B26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>21</v>
+      </c>
+      <c r="B29" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>22</v>
+      </c>
+      <c r="B32" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>29</v>
+      </c>
+      <c r="B34" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>31</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>15</v>
+      </c>
+      <c r="B37" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>17</v>
+      </c>
+      <c r="B39" t="s">
         <v>18</v>
       </c>
-      <c r="B25" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>21</v>
-      </c>
-      <c r="B26" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>44</v>
-      </c>
-      <c r="B27" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="19.2" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+    </row>
+    <row r="40" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>24</v>
       </c>
-      <c r="B29" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>16</v>
-      </c>
-      <c r="B30" t="s">
+      <c r="B40" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>27</v>
+      </c>
+      <c r="B41" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>29</v>
-      </c>
-      <c r="B31" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>34</v>
-      </c>
-      <c r="B33" t="s">
+    <row r="42" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>30</v>
-      </c>
-      <c r="B34" t="s">
-        <v>19</v>
-      </c>
-      <c r="C34" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>40</v>
-      </c>
-      <c r="B36" t="s">
-        <v>19</v>
-      </c>
-      <c r="C36" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>42</v>
-      </c>
-      <c r="B37" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>13</v>
-      </c>
-      <c r="B39" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>23</v>
-      </c>
-      <c r="B40" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>4</v>
-      </c>
       <c r="B42" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>22</v>
-      </c>
-      <c r="B43" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>25</v>
-      </c>
-      <c r="B44" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>33</v>
-      </c>
-      <c r="B45" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
         <v>36</v>
       </c>
-      <c r="B46" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>37</v>
-      </c>
-      <c r="B47" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>38</v>
-      </c>
-      <c r="B48" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>46</v>
-      </c>
-      <c r="B49" t="s">
-        <v>47</v>
-      </c>
+    </row>
+    <row r="63" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/进度.xlsx
+++ b/进度.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\milly\eclipse-workspace\404\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{933F361D-5C42-4DE0-A6B1-997CED4FFE22}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B16082D8-D919-4A79-AE7A-19BE74F0BC14}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3EFDA536-248F-4032-9124-FADB6029AEE8}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="88">
   <si>
     <t>商品</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -44,10 +44,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">孙东杓 Daisy一代手幅 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>黄允圣 Shine On U 一代手幅</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -56,14 +52,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>金旻奎 Coastal Love 一代手幅</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>孙东杓 饭制透扇</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>韩国到货</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -84,10 +72,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>李垠尚 宋亨俊饭制手拿镜</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>车俊昊ugi黑色手幅</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -108,10 +92,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>孙东杓 kiss of the gun 反光手幅</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>具正模 into stereo 一代手幅</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -164,10 +144,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>李垠尚 车俊昊 具正模 金敏圭饭制横幅挂饰</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>孙东杓 bold二代</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -206,17 +182,11 @@
     <t>具正模 小白熊反光手幅</t>
   </si>
   <si>
-    <t>曹承衍 Bunny 一代反光手幅</t>
-  </si>
-  <si>
     <t>金宇硕 WooSeoKad 应援手幅</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>李镇赫 action 一代 MOVE 反光手幅</t>
-  </si>
-  <si>
-    <t>金敏圭 MELLIFLUOUS CARAMEL一代反光手幅</t>
   </si>
   <si>
     <t>田雄 Sweety 一代反光手幅</t>
@@ -278,12 +248,161 @@
     <t>金施勲 PLAY UP!CHEERING KIT 反光手幅（少手幅*1+手机支架*3）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>金宇硕 琴东贤 扇子/透扇/ins透卡 ​​​​</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>推主下周发货</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>截至7.26 👇</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙东杓 DAISY 一代手幅</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄允圣 Shine On U 一代手幅</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金宇硕 LOVE SHOT 红色手幅</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金旻奎 Coastal Love一代手幅</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙东杓 饭制透扇</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.29转运发出</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.2推主发货</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>李垠尚 mind1723</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.3韩国到货</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>李美談 LEEMIDAM Cheering Kit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.4 推主下周配送</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>曹承衍 Bunny 一代反光手幅（差两套）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.7推主发货</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>曹承衍</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> HIDDEN </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>一代反光手幅</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>旧包通关未取到新包通关的八件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.孙东杓饭制证件照二贩</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>旧包通关未找到</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.饭制戒指</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.李翰洁 ninevelvet</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>李垠尚 车俊昊 具正模 金旻奎饭制横幅挂饰</t>
+  </si>
+  <si>
+    <t xml:space="preserve">饭制金旻奎证件照（紫色版本） </t>
+  </si>
+  <si>
+    <t>金旻奎 MELLIFLUOUS CARAMEL一代反光手幅</t>
+  </si>
+  <si>
+    <t>截至8.8韩国已到货</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>韩胜宇Uooooooo_H12反光手幅</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.24韩国已发货 发到旧包通关</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.金曜汉 Your Heartthrob 一代反光手幅</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.8韩国到货</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>车银优 twinklestar 夏日周边</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>南道贤 道贤星球⭐ 反光手幅</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>李垠尚 宋亨俊饭制手拿镜</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -334,6 +453,26 @@
       <name val="STKaiti"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3" tint="0.39997558519241921"/>
+      <name val="STKaiti"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -380,7 +519,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -404,6 +543,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -720,330 +862,397 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD66957C-8957-4AEA-8409-B8280AF264FC}">
-  <dimension ref="A1:F63"/>
+  <dimension ref="A1:G63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="5" width="31" customWidth="1"/>
+    <col min="1" max="3" width="31" customWidth="1"/>
+    <col min="4" max="4" width="35.5546875" customWidth="1"/>
+    <col min="5" max="5" width="33.5546875" customWidth="1"/>
     <col min="6" max="7" width="32.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>60</v>
-      </c>
       <c r="D2" s="6" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
       <c r="D3" s="6" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
       <c r="D4" s="6" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="D5" s="7" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
       <c r="D6" s="7" t="s">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F6" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F7" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D8" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" s="5"/>
+    </row>
+    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" s="5"/>
+    </row>
+    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>60</v>
+      </c>
+      <c r="E11" s="5"/>
+    </row>
+    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F7" s="7" t="s">
+    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E8" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E9" s="5"/>
-    </row>
-    <row r="10" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="E13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" t="s">
+        <v>65</v>
+      </c>
+      <c r="E17" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>81</v>
+      </c>
+      <c r="E18" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>71</v>
+      </c>
+      <c r="B23" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="4"/>
+      <c r="E24" t="s">
+        <v>72</v>
+      </c>
+      <c r="F24" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>7</v>
       </c>
-      <c r="B10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>37</v>
-      </c>
-      <c r="B16" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>6</v>
-      </c>
-      <c r="B19" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="B25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" t="s">
+        <v>73</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F27" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>20</v>
       </c>
-      <c r="B21" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>9</v>
-      </c>
-      <c r="B22" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B24" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>10</v>
-      </c>
-      <c r="B26" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>33</v>
-      </c>
-      <c r="B27" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="B30" t="s">
         <v>21</v>
       </c>
-      <c r="B29" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>25</v>
+    </row>
+    <row r="31" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="B31" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>22</v>
-      </c>
-      <c r="B32" t="s">
-        <v>11</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="E31" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
-        <v>23</v>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>24</v>
+      </c>
+      <c r="B33" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B34" t="s">
+        <v>21</v>
+      </c>
+      <c r="C34" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>11</v>
       </c>
-      <c r="C34" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>31</v>
-      </c>
-      <c r="B35" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>15</v>
-      </c>
-      <c r="B37" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>17</v>
-      </c>
-      <c r="B39" t="s">
-        <v>18</v>
+      <c r="B36" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>13</v>
+      </c>
+      <c r="B38" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B40" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B42" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="63" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
